--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/R205_SWT_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/R205_SWT_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2660" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5320" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -506,10 +518,10 @@
       <c r="I13">
         <f>((C13-C12)^2+(D13- D12)^2)^.5</f>
       </c>
-      <c r="J13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K13" s="2" t="s">
+      <c r="J13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L13" t="n">
@@ -553,28 +565,28 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="2">
+      <c r="A15" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B15" t="s" s="2">
+      <c r="B15" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C15" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D15" t="s" s="2">
+      <c r="C15" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E15" t="s" s="2">
+      <c r="E15" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F15" t="s" s="2">
+      <c r="F15" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G15" t="s" s="2">
+      <c r="G15" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H15" t="s" s="2">
+      <c r="H15" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -599,28 +611,28 @@
       </c>
     </row>
     <row r="17">
-      <c r="B17" t="s" s="2">
+      <c r="B17" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C17" t="s" s="2">
+      <c r="C17" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D17" t="s" s="2">
+      <c r="D17" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E17" t="s" s="2">
+      <c r="E17" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F17" t="s" s="2">
+      <c r="F17" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G17" t="s" s="2">
+      <c r="G17" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H17" t="s" s="2">
+      <c r="H17" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I17" t="s" s="2">
+      <c r="I17" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1027,10 +1039,10 @@
       <c r="I31">
         <f>((C31-C30)^2+(D31- D30)^2)^.5</f>
       </c>
-      <c r="J31" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K31" s="2" t="s">
+      <c r="J31" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K31" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L31" t="n">
@@ -1074,28 +1086,28 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s" s="2">
+      <c r="A33" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B33" t="s" s="2">
+      <c r="B33" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C33" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D33" t="s" s="2">
+      <c r="C33" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D33" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E33" t="s" s="2">
+      <c r="E33" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F33" t="s" s="2">
+      <c r="F33" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G33" t="s" s="2">
+      <c r="G33" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H33" t="s" s="2">
+      <c r="H33" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1120,28 +1132,28 @@
       </c>
     </row>
     <row r="35">
-      <c r="B35" t="s" s="2">
+      <c r="B35" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C35" t="s" s="2">
+      <c r="C35" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D35" t="s" s="2">
+      <c r="D35" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E35" t="s" s="2">
+      <c r="E35" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F35" t="s" s="2">
+      <c r="F35" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G35" t="s" s="2">
+      <c r="G35" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H35" t="s" s="2">
+      <c r="H35" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I35" t="s" s="2">
+      <c r="I35" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1200,10 +1212,10 @@
       <c r="I37">
         <f>((C37-C36)^2+(D37- D36)^2)^.5</f>
       </c>
-      <c r="J37" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K37" s="2" t="s">
+      <c r="J37" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K37" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L37" t="n">
@@ -1247,28 +1259,28 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="s" s="2">
+      <c r="A39" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B39" t="s" s="2">
+      <c r="B39" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C39" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D39" t="s" s="2">
+      <c r="C39" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D39" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E39" t="s" s="2">
+      <c r="E39" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F39" t="s" s="2">
+      <c r="F39" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G39" t="s" s="2">
+      <c r="G39" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H39" t="s" s="2">
+      <c r="H39" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1293,28 +1305,28 @@
       </c>
     </row>
     <row r="41">
-      <c r="B41" t="s" s="2">
+      <c r="B41" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C41" t="s" s="2">
+      <c r="C41" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D41" t="s" s="2">
+      <c r="D41" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E41" t="s" s="2">
+      <c r="E41" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F41" t="s" s="2">
+      <c r="F41" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G41" t="s" s="2">
+      <c r="G41" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H41" t="s" s="2">
+      <c r="H41" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I41" t="s" s="2">
+      <c r="I41" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1373,10 +1385,10 @@
       <c r="I43">
         <f>((C43-C42)^2+(D43- D42)^2)^.5</f>
       </c>
-      <c r="J43" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K43" s="2" t="s">
+      <c r="J43" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K43" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L43" t="n">
@@ -1420,28 +1432,28 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="s" s="2">
+      <c r="A45" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B45" t="s" s="2">
+      <c r="B45" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C45" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D45" t="s" s="2">
+      <c r="C45" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D45" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E45" t="s" s="2">
+      <c r="E45" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F45" t="s" s="2">
+      <c r="F45" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G45" t="s" s="2">
+      <c r="G45" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H45" t="s" s="2">
+      <c r="H45" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1466,28 +1478,28 @@
       </c>
     </row>
     <row r="47">
-      <c r="B47" t="s" s="2">
+      <c r="B47" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C47" t="s" s="2">
+      <c r="C47" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D47" t="s" s="2">
+      <c r="D47" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E47" t="s" s="2">
+      <c r="E47" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F47" t="s" s="2">
+      <c r="F47" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G47" t="s" s="2">
+      <c r="G47" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H47" t="s" s="2">
+      <c r="H47" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I47" t="s" s="2">
+      <c r="I47" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1546,10 +1558,10 @@
       <c r="I49">
         <f>((C49-C48)^2+(D49- D48)^2)^.5</f>
       </c>
-      <c r="J49" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K49" s="2" t="s">
+      <c r="J49" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K49" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L49" t="n">
@@ -1593,28 +1605,28 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="s" s="2">
+      <c r="A51" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B51" t="s" s="2">
+      <c r="B51" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C51" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D51" t="s" s="2">
+      <c r="C51" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D51" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E51" t="s" s="2">
+      <c r="E51" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F51" t="s" s="2">
+      <c r="F51" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G51" t="s" s="2">
+      <c r="G51" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H51" t="s" s="2">
+      <c r="H51" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1639,28 +1651,28 @@
       </c>
     </row>
     <row r="53">
-      <c r="B53" t="s" s="2">
+      <c r="B53" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C53" t="s" s="2">
+      <c r="C53" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D53" t="s" s="2">
+      <c r="D53" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E53" t="s" s="2">
+      <c r="E53" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F53" t="s" s="2">
+      <c r="F53" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G53" t="s" s="2">
+      <c r="G53" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H53" t="s" s="2">
+      <c r="H53" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I53" t="s" s="2">
+      <c r="I53" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1719,10 +1731,10 @@
       <c r="I55">
         <f>((C55-C54)^2+(D55- D54)^2)^.5</f>
       </c>
-      <c r="J55" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K55" s="2" t="s">
+      <c r="J55" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K55" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L55" t="n">
@@ -1766,28 +1778,28 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="s" s="2">
+      <c r="A57" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B57" t="s" s="2">
+      <c r="B57" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C57" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D57" t="s" s="2">
+      <c r="C57" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D57" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E57" t="s" s="2">
+      <c r="E57" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F57" t="s" s="2">
+      <c r="F57" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G57" t="s" s="2">
+      <c r="G57" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H57" t="s" s="2">
+      <c r="H57" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1812,28 +1824,28 @@
       </c>
     </row>
     <row r="59">
-      <c r="B59" t="s" s="2">
+      <c r="B59" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C59" t="s" s="2">
+      <c r="C59" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D59" t="s" s="2">
+      <c r="D59" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E59" t="s" s="2">
+      <c r="E59" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F59" t="s" s="2">
+      <c r="F59" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G59" t="s" s="2">
+      <c r="G59" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H59" t="s" s="2">
+      <c r="H59" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I59" t="s" s="2">
+      <c r="I59" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1892,10 +1904,10 @@
       <c r="I61">
         <f>((C61-C60)^2+(D61- D60)^2)^.5</f>
       </c>
-      <c r="J61" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K61" s="2" t="s">
+      <c r="J61" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K61" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L61" t="n">
@@ -1939,28 +1951,28 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="s" s="2">
+      <c r="A63" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B63" t="s" s="2">
+      <c r="B63" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C63" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D63" t="s" s="2">
+      <c r="C63" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D63" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E63" t="s" s="2">
+      <c r="E63" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F63" t="s" s="2">
+      <c r="F63" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G63" t="s" s="2">
+      <c r="G63" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H63" t="s" s="2">
+      <c r="H63" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1985,28 +1997,28 @@
       </c>
     </row>
     <row r="65">
-      <c r="B65" t="s" s="2">
+      <c r="B65" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C65" t="s" s="2">
+      <c r="C65" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D65" t="s" s="2">
+      <c r="D65" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E65" t="s" s="2">
+      <c r="E65" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F65" t="s" s="2">
+      <c r="F65" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G65" t="s" s="2">
+      <c r="G65" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H65" t="s" s="2">
+      <c r="H65" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I65" t="s" s="2">
+      <c r="I65" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2065,10 +2077,10 @@
       <c r="I67">
         <f>((C67-C66)^2+(D67- D66)^2)^.5</f>
       </c>
-      <c r="J67" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K67" s="2" t="s">
+      <c r="J67" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K67" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L67" t="n">
@@ -2112,28 +2124,28 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="s" s="2">
+      <c r="A69" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B69" t="s" s="2">
+      <c r="B69" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C69" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D69" t="s" s="2">
+      <c r="C69" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D69" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E69" t="s" s="2">
+      <c r="E69" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F69" t="s" s="2">
+      <c r="F69" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G69" t="s" s="2">
+      <c r="G69" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H69" t="s" s="2">
+      <c r="H69" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2158,28 +2170,28 @@
       </c>
     </row>
     <row r="71">
-      <c r="B71" t="s" s="2">
+      <c r="B71" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C71" t="s" s="2">
+      <c r="C71" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D71" t="s" s="2">
+      <c r="D71" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E71" t="s" s="2">
+      <c r="E71" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F71" t="s" s="2">
+      <c r="F71" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G71" t="s" s="2">
+      <c r="G71" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H71" t="s" s="2">
+      <c r="H71" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I71" t="s" s="2">
+      <c r="I71" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2238,10 +2250,10 @@
       <c r="I73">
         <f>((C73-C72)^2+(D73- D72)^2)^.5</f>
       </c>
-      <c r="J73" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K73" s="2" t="s">
+      <c r="J73" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K73" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L73" t="n">
@@ -2285,28 +2297,28 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="s" s="2">
+      <c r="A75" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B75" t="s" s="2">
+      <c r="B75" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C75" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D75" t="s" s="2">
+      <c r="C75" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D75" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E75" t="s" s="2">
+      <c r="E75" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F75" t="s" s="2">
+      <c r="F75" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G75" t="s" s="2">
+      <c r="G75" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H75" t="s" s="2">
+      <c r="H75" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2331,28 +2343,28 @@
       </c>
     </row>
     <row r="77">
-      <c r="B77" t="s" s="2">
+      <c r="B77" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C77" t="s" s="2">
+      <c r="C77" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D77" t="s" s="2">
+      <c r="D77" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E77" t="s" s="2">
+      <c r="E77" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F77" t="s" s="2">
+      <c r="F77" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G77" t="s" s="2">
+      <c r="G77" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H77" t="s" s="2">
+      <c r="H77" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I77" t="s" s="2">
+      <c r="I77" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2411,10 +2423,10 @@
       <c r="I79">
         <f>((C79-C78)^2+(D79- D78)^2)^.5</f>
       </c>
-      <c r="J79" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K79" s="2" t="s">
+      <c r="J79" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K79" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L79" t="n">
@@ -2458,28 +2470,28 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="s" s="2">
+      <c r="A81" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B81" t="s" s="2">
+      <c r="B81" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C81" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D81" t="s" s="2">
+      <c r="C81" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D81" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E81" t="s" s="2">
+      <c r="E81" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F81" t="s" s="2">
+      <c r="F81" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G81" t="s" s="2">
+      <c r="G81" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H81" t="s" s="2">
+      <c r="H81" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2504,28 +2516,28 @@
       </c>
     </row>
     <row r="83">
-      <c r="B83" t="s" s="2">
+      <c r="B83" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C83" t="s" s="2">
+      <c r="C83" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D83" t="s" s="2">
+      <c r="D83" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E83" t="s" s="2">
+      <c r="E83" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F83" t="s" s="2">
+      <c r="F83" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G83" t="s" s="2">
+      <c r="G83" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H83" t="s" s="2">
+      <c r="H83" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I83" t="s" s="2">
+      <c r="I83" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2584,10 +2596,10 @@
       <c r="I85">
         <f>((C85-C84)^2+(D85- D84)^2)^.5</f>
       </c>
-      <c r="J85" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K85" s="2" t="s">
+      <c r="J85" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K85" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L85" t="n">
@@ -2631,28 +2643,28 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="s" s="2">
+      <c r="A87" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B87" t="s" s="2">
+      <c r="B87" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C87" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D87" t="s" s="2">
+      <c r="C87" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D87" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E87" t="s" s="2">
+      <c r="E87" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F87" t="s" s="2">
+      <c r="F87" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G87" t="s" s="2">
+      <c r="G87" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H87" t="s" s="2">
+      <c r="H87" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2677,28 +2689,28 @@
       </c>
     </row>
     <row r="89">
-      <c r="B89" t="s" s="2">
+      <c r="B89" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C89" t="s" s="2">
+      <c r="C89" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D89" t="s" s="2">
+      <c r="D89" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E89" t="s" s="2">
+      <c r="E89" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F89" t="s" s="2">
+      <c r="F89" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G89" t="s" s="2">
+      <c r="G89" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H89" t="s" s="2">
+      <c r="H89" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I89" t="s" s="2">
+      <c r="I89" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2757,10 +2769,10 @@
       <c r="I91">
         <f>((C91-C90)^2+(D91- D90)^2)^.5</f>
       </c>
-      <c r="J91" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K91" s="2" t="s">
+      <c r="J91" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K91" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L91" t="n">
@@ -2804,28 +2816,28 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="s" s="2">
+      <c r="A93" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B93" t="s" s="2">
+      <c r="B93" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C93" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D93" t="s" s="2">
+      <c r="C93" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D93" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E93" t="s" s="2">
+      <c r="E93" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F93" t="s" s="2">
+      <c r="F93" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G93" t="s" s="2">
+      <c r="G93" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H93" t="s" s="2">
+      <c r="H93" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2850,28 +2862,28 @@
       </c>
     </row>
     <row r="95">
-      <c r="B95" t="s" s="2">
+      <c r="B95" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C95" t="s" s="2">
+      <c r="C95" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D95" t="s" s="2">
+      <c r="D95" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E95" t="s" s="2">
+      <c r="E95" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F95" t="s" s="2">
+      <c r="F95" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G95" t="s" s="2">
+      <c r="G95" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H95" t="s" s="2">
+      <c r="H95" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I95" t="s" s="2">
+      <c r="I95" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2930,10 +2942,10 @@
       <c r="I97">
         <f>((C97-C96)^2+(D97- D96)^2)^.5</f>
       </c>
-      <c r="J97" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K97" s="2" t="s">
+      <c r="J97" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K97" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L97" t="n">
@@ -2977,28 +2989,28 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="s" s="2">
+      <c r="A99" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B99" t="s" s="2">
+      <c r="B99" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C99" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D99" t="s" s="2">
+      <c r="C99" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D99" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E99" t="s" s="2">
+      <c r="E99" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F99" t="s" s="2">
+      <c r="F99" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G99" t="s" s="2">
+      <c r="G99" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H99" t="s" s="2">
+      <c r="H99" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3023,28 +3035,28 @@
       </c>
     </row>
     <row r="101">
-      <c r="B101" t="s" s="2">
+      <c r="B101" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C101" t="s" s="2">
+      <c r="C101" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D101" t="s" s="2">
+      <c r="D101" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E101" t="s" s="2">
+      <c r="E101" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F101" t="s" s="2">
+      <c r="F101" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G101" t="s" s="2">
+      <c r="G101" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H101" t="s" s="2">
+      <c r="H101" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I101" t="s" s="2">
+      <c r="I101" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3103,10 +3115,10 @@
       <c r="I103">
         <f>((C103-C102)^2+(D103- D102)^2)^.5</f>
       </c>
-      <c r="J103" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K103" s="2" t="s">
+      <c r="J103" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K103" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L103" t="n">
@@ -3150,28 +3162,28 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="s" s="2">
+      <c r="A105" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B105" t="s" s="2">
+      <c r="B105" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C105" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D105" t="s" s="2">
+      <c r="C105" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D105" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E105" t="s" s="2">
+      <c r="E105" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F105" t="s" s="2">
+      <c r="F105" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G105" t="s" s="2">
+      <c r="G105" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H105" t="s" s="2">
+      <c r="H105" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3196,28 +3208,28 @@
       </c>
     </row>
     <row r="107">
-      <c r="B107" t="s" s="2">
+      <c r="B107" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C107" t="s" s="2">
+      <c r="C107" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D107" t="s" s="2">
+      <c r="D107" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E107" t="s" s="2">
+      <c r="E107" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F107" t="s" s="2">
+      <c r="F107" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G107" t="s" s="2">
+      <c r="G107" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H107" t="s" s="2">
+      <c r="H107" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I107" t="s" s="2">
+      <c r="I107" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3276,10 +3288,10 @@
       <c r="I109">
         <f>((C109-C108)^2+(D109- D108)^2)^.5</f>
       </c>
-      <c r="J109" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K109" s="2" t="s">
+      <c r="J109" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K109" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L109" t="n">
@@ -3323,28 +3335,28 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="s" s="2">
+      <c r="A111" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B111" t="s" s="2">
+      <c r="B111" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C111" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D111" t="s" s="2">
+      <c r="C111" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D111" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E111" t="s" s="2">
+      <c r="E111" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F111" t="s" s="2">
+      <c r="F111" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G111" t="s" s="2">
+      <c r="G111" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H111" t="s" s="2">
+      <c r="H111" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3369,28 +3381,28 @@
       </c>
     </row>
     <row r="113">
-      <c r="B113" t="s" s="2">
+      <c r="B113" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C113" t="s" s="2">
+      <c r="C113" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D113" t="s" s="2">
+      <c r="D113" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E113" t="s" s="2">
+      <c r="E113" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F113" t="s" s="2">
+      <c r="F113" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G113" t="s" s="2">
+      <c r="G113" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H113" t="s" s="2">
+      <c r="H113" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I113" t="s" s="2">
+      <c r="I113" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3449,10 +3461,10 @@
       <c r="I115">
         <f>((C115-C114)^2+(D115- D114)^2)^.5</f>
       </c>
-      <c r="J115" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K115" s="2" t="s">
+      <c r="J115" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K115" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L115" t="n">
@@ -3496,28 +3508,28 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="s" s="2">
+      <c r="A117" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B117" t="s" s="2">
+      <c r="B117" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C117" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D117" t="s" s="2">
+      <c r="C117" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D117" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E117" t="s" s="2">
+      <c r="E117" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F117" t="s" s="2">
+      <c r="F117" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G117" t="s" s="2">
+      <c r="G117" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H117" t="s" s="2">
+      <c r="H117" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3542,28 +3554,28 @@
       </c>
     </row>
     <row r="119">
-      <c r="B119" t="s" s="2">
+      <c r="B119" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C119" t="s" s="2">
+      <c r="C119" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D119" t="s" s="2">
+      <c r="D119" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E119" t="s" s="2">
+      <c r="E119" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F119" t="s" s="2">
+      <c r="F119" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G119" t="s" s="2">
+      <c r="G119" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H119" t="s" s="2">
+      <c r="H119" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I119" t="s" s="2">
+      <c r="I119" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3622,10 +3634,10 @@
       <c r="I121">
         <f>((C121-C120)^2+(D121- D120)^2)^.5</f>
       </c>
-      <c r="J121" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K121" s="2" t="s">
+      <c r="J121" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K121" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L121" t="n">
@@ -3669,28 +3681,28 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="s" s="2">
+      <c r="A123" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B123" t="s" s="2">
+      <c r="B123" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C123" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D123" t="s" s="2">
+      <c r="C123" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D123" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E123" t="s" s="2">
+      <c r="E123" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F123" t="s" s="2">
+      <c r="F123" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G123" t="s" s="2">
+      <c r="G123" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H123" t="s" s="2">
+      <c r="H123" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3715,28 +3727,28 @@
       </c>
     </row>
     <row r="125">
-      <c r="B125" t="s" s="2">
+      <c r="B125" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C125" t="s" s="2">
+      <c r="C125" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D125" t="s" s="2">
+      <c r="D125" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E125" t="s" s="2">
+      <c r="E125" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F125" t="s" s="2">
+      <c r="F125" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G125" t="s" s="2">
+      <c r="G125" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H125" t="s" s="2">
+      <c r="H125" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I125" t="s" s="2">
+      <c r="I125" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3795,10 +3807,10 @@
       <c r="I127">
         <f>((C127-C126)^2+(D127- D126)^2)^.5</f>
       </c>
-      <c r="J127" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K127" s="2" t="s">
+      <c r="J127" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K127" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L127" t="n">
@@ -3842,28 +3854,28 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="s" s="2">
+      <c r="A129" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B129" t="s" s="2">
+      <c r="B129" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C129" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D129" t="s" s="2">
+      <c r="C129" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D129" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E129" t="s" s="2">
+      <c r="E129" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F129" t="s" s="2">
+      <c r="F129" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G129" t="s" s="2">
+      <c r="G129" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H129" t="s" s="2">
+      <c r="H129" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3888,28 +3900,28 @@
       </c>
     </row>
     <row r="131">
-      <c r="B131" t="s" s="2">
+      <c r="B131" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C131" t="s" s="2">
+      <c r="C131" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D131" t="s" s="2">
+      <c r="D131" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E131" t="s" s="2">
+      <c r="E131" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F131" t="s" s="2">
+      <c r="F131" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G131" t="s" s="2">
+      <c r="G131" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H131" t="s" s="2">
+      <c r="H131" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I131" t="s" s="2">
+      <c r="I131" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3968,10 +3980,10 @@
       <c r="I133">
         <f>((C133-C132)^2+(D133- D132)^2)^.5</f>
       </c>
-      <c r="J133" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K133" s="2" t="s">
+      <c r="J133" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K133" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L133" t="n">
@@ -4015,28 +4027,28 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="s" s="2">
+      <c r="A135" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B135" t="s" s="2">
+      <c r="B135" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C135" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D135" t="s" s="2">
+      <c r="C135" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D135" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E135" t="s" s="2">
+      <c r="E135" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F135" t="s" s="2">
+      <c r="F135" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G135" t="s" s="2">
+      <c r="G135" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H135" t="s" s="2">
+      <c r="H135" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4061,28 +4073,28 @@
       </c>
     </row>
     <row r="137">
-      <c r="B137" t="s" s="2">
+      <c r="B137" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C137" t="s" s="2">
+      <c r="C137" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D137" t="s" s="2">
+      <c r="D137" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E137" t="s" s="2">
+      <c r="E137" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F137" t="s" s="2">
+      <c r="F137" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G137" t="s" s="2">
+      <c r="G137" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H137" t="s" s="2">
+      <c r="H137" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I137" t="s" s="2">
+      <c r="I137" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4141,10 +4153,10 @@
       <c r="I139">
         <f>((C139-C138)^2+(D139- D138)^2)^.5</f>
       </c>
-      <c r="J139" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K139" s="2" t="s">
+      <c r="J139" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K139" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L139" t="n">
@@ -4188,28 +4200,28 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="s" s="2">
+      <c r="A141" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B141" t="s" s="2">
+      <c r="B141" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C141" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D141" t="s" s="2">
+      <c r="C141" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D141" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E141" t="s" s="2">
+      <c r="E141" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F141" t="s" s="2">
+      <c r="F141" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G141" t="s" s="2">
+      <c r="G141" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H141" t="s" s="2">
+      <c r="H141" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4234,28 +4246,28 @@
       </c>
     </row>
     <row r="143">
-      <c r="B143" t="s" s="2">
+      <c r="B143" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C143" t="s" s="2">
+      <c r="C143" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D143" t="s" s="2">
+      <c r="D143" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E143" t="s" s="2">
+      <c r="E143" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F143" t="s" s="2">
+      <c r="F143" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G143" t="s" s="2">
+      <c r="G143" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H143" t="s" s="2">
+      <c r="H143" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I143" t="s" s="2">
+      <c r="I143" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4314,10 +4326,10 @@
       <c r="I145">
         <f>((C145-C144)^2+(D145- D144)^2)^.5</f>
       </c>
-      <c r="J145" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K145" s="2" t="s">
+      <c r="J145" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K145" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L145" t="n">
@@ -4361,28 +4373,28 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" t="s" s="2">
+      <c r="A147" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B147" t="s" s="2">
+      <c r="B147" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C147" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D147" t="s" s="2">
+      <c r="C147" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D147" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E147" t="s" s="2">
+      <c r="E147" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F147" t="s" s="2">
+      <c r="F147" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G147" t="s" s="2">
+      <c r="G147" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H147" t="s" s="2">
+      <c r="H147" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4407,28 +4419,28 @@
       </c>
     </row>
     <row r="149">
-      <c r="B149" t="s" s="2">
+      <c r="B149" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C149" t="s" s="2">
+      <c r="C149" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D149" t="s" s="2">
+      <c r="D149" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E149" t="s" s="2">
+      <c r="E149" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F149" t="s" s="2">
+      <c r="F149" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G149" t="s" s="2">
+      <c r="G149" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H149" t="s" s="2">
+      <c r="H149" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I149" t="s" s="2">
+      <c r="I149" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4487,10 +4499,10 @@
       <c r="I151">
         <f>((C151-C150)^2+(D151- D150)^2)^.5</f>
       </c>
-      <c r="J151" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K151" s="2" t="s">
+      <c r="J151" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K151" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L151" t="n">
@@ -4534,28 +4546,28 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="s" s="2">
+      <c r="A153" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B153" t="s" s="2">
+      <c r="B153" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C153" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D153" t="s" s="2">
+      <c r="C153" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D153" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E153" t="s" s="2">
+      <c r="E153" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F153" t="s" s="2">
+      <c r="F153" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G153" t="s" s="2">
+      <c r="G153" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H153" t="s" s="2">
+      <c r="H153" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4580,28 +4592,28 @@
       </c>
     </row>
     <row r="155">
-      <c r="B155" t="s" s="2">
+      <c r="B155" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C155" t="s" s="2">
+      <c r="C155" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D155" t="s" s="2">
+      <c r="D155" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E155" t="s" s="2">
+      <c r="E155" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F155" t="s" s="2">
+      <c r="F155" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G155" t="s" s="2">
+      <c r="G155" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H155" t="s" s="2">
+      <c r="H155" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I155" t="s" s="2">
+      <c r="I155" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4660,10 +4672,10 @@
       <c r="I157">
         <f>((C157-C156)^2+(D157- D156)^2)^.5</f>
       </c>
-      <c r="J157" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K157" s="2" t="s">
+      <c r="J157" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K157" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L157" t="n">
@@ -4707,28 +4719,28 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="s" s="2">
+      <c r="A159" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B159" t="s" s="2">
+      <c r="B159" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C159" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D159" t="s" s="2">
+      <c r="C159" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D159" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E159" t="s" s="2">
+      <c r="E159" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F159" t="s" s="2">
+      <c r="F159" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G159" t="s" s="2">
+      <c r="G159" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H159" t="s" s="2">
+      <c r="H159" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4753,28 +4765,28 @@
       </c>
     </row>
     <row r="161">
-      <c r="B161" t="s" s="2">
+      <c r="B161" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C161" t="s" s="2">
+      <c r="C161" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D161" t="s" s="2">
+      <c r="D161" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E161" t="s" s="2">
+      <c r="E161" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F161" t="s" s="2">
+      <c r="F161" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G161" t="s" s="2">
+      <c r="G161" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H161" t="s" s="2">
+      <c r="H161" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I161" t="s" s="2">
+      <c r="I161" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4833,10 +4845,10 @@
       <c r="I163">
         <f>((C163-C162)^2+(D163- D162)^2)^.5</f>
       </c>
-      <c r="J163" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K163" s="2" t="s">
+      <c r="J163" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K163" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L163" t="n">
@@ -4880,28 +4892,28 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="s" s="2">
+      <c r="A165" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B165" t="s" s="2">
+      <c r="B165" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C165" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D165" t="s" s="2">
+      <c r="C165" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D165" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E165" t="s" s="2">
+      <c r="E165" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F165" t="s" s="2">
+      <c r="F165" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G165" t="s" s="2">
+      <c r="G165" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H165" t="s" s="2">
+      <c r="H165" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4926,28 +4938,28 @@
       </c>
     </row>
     <row r="167">
-      <c r="B167" t="s" s="2">
+      <c r="B167" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C167" t="s" s="2">
+      <c r="C167" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D167" t="s" s="2">
+      <c r="D167" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E167" t="s" s="2">
+      <c r="E167" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F167" t="s" s="2">
+      <c r="F167" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G167" t="s" s="2">
+      <c r="G167" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H167" t="s" s="2">
+      <c r="H167" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I167" t="s" s="2">
+      <c r="I167" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5006,10 +5018,10 @@
       <c r="I169">
         <f>((C169-C168)^2+(D169- D168)^2)^.5</f>
       </c>
-      <c r="J169" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K169" s="2" t="s">
+      <c r="J169" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K169" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L169" t="n">
@@ -5053,28 +5065,28 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="s" s="2">
+      <c r="A171" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B171" t="s" s="2">
+      <c r="B171" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C171" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D171" t="s" s="2">
+      <c r="C171" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D171" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E171" t="s" s="2">
+      <c r="E171" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F171" t="s" s="2">
+      <c r="F171" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G171" t="s" s="2">
+      <c r="G171" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H171" t="s" s="2">
+      <c r="H171" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5099,28 +5111,28 @@
       </c>
     </row>
     <row r="173">
-      <c r="B173" t="s" s="2">
+      <c r="B173" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C173" t="s" s="2">
+      <c r="C173" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D173" t="s" s="2">
+      <c r="D173" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E173" t="s" s="2">
+      <c r="E173" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F173" t="s" s="2">
+      <c r="F173" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G173" t="s" s="2">
+      <c r="G173" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H173" t="s" s="2">
+      <c r="H173" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I173" t="s" s="2">
+      <c r="I173" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5179,10 +5191,10 @@
       <c r="I175">
         <f>((C175-C174)^2+(D175- D174)^2)^.5</f>
       </c>
-      <c r="J175" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K175" s="2" t="s">
+      <c r="J175" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K175" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L175" t="n">
@@ -5226,28 +5238,28 @@
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="s" s="2">
+      <c r="A177" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B177" t="s" s="2">
+      <c r="B177" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C177" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D177" t="s" s="2">
+      <c r="C177" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D177" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E177" t="s" s="2">
+      <c r="E177" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F177" t="s" s="2">
+      <c r="F177" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G177" t="s" s="2">
+      <c r="G177" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H177" t="s" s="2">
+      <c r="H177" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5272,28 +5284,28 @@
       </c>
     </row>
     <row r="179">
-      <c r="B179" t="s" s="2">
+      <c r="B179" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C179" t="s" s="2">
+      <c r="C179" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D179" t="s" s="2">
+      <c r="D179" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E179" t="s" s="2">
+      <c r="E179" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F179" t="s" s="2">
+      <c r="F179" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G179" t="s" s="2">
+      <c r="G179" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H179" t="s" s="2">
+      <c r="H179" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I179" t="s" s="2">
+      <c r="I179" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5352,10 +5364,10 @@
       <c r="I181">
         <f>((C181-C180)^2+(D181- D180)^2)^.5</f>
       </c>
-      <c r="J181" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K181" s="2" t="s">
+      <c r="J181" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K181" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L181" t="n">
@@ -5399,28 +5411,28 @@
       </c>
     </row>
     <row r="183">
-      <c r="A183" t="s" s="2">
+      <c r="A183" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B183" t="s" s="2">
+      <c r="B183" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C183" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D183" t="s" s="2">
+      <c r="C183" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D183" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E183" t="s" s="2">
+      <c r="E183" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F183" t="s" s="2">
+      <c r="F183" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G183" t="s" s="2">
+      <c r="G183" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H183" t="s" s="2">
+      <c r="H183" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5445,28 +5457,28 @@
       </c>
     </row>
     <row r="185">
-      <c r="B185" t="s" s="2">
+      <c r="B185" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C185" t="s" s="2">
+      <c r="C185" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D185" t="s" s="2">
+      <c r="D185" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E185" t="s" s="2">
+      <c r="E185" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F185" t="s" s="2">
+      <c r="F185" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G185" t="s" s="2">
+      <c r="G185" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H185" t="s" s="2">
+      <c r="H185" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I185" t="s" s="2">
+      <c r="I185" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5525,10 +5537,10 @@
       <c r="I187">
         <f>((C187-C186)^2+(D187- D186)^2)^.5</f>
       </c>
-      <c r="J187" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K187" s="2" t="s">
+      <c r="J187" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K187" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L187" t="n">
@@ -5572,28 +5584,28 @@
       </c>
     </row>
     <row r="189">
-      <c r="A189" t="s" s="2">
+      <c r="A189" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B189" t="s" s="2">
+      <c r="B189" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C189" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D189" t="s" s="2">
+      <c r="C189" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D189" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E189" t="s" s="2">
+      <c r="E189" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F189" t="s" s="2">
+      <c r="F189" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G189" t="s" s="2">
+      <c r="G189" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H189" t="s" s="2">
+      <c r="H189" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5618,28 +5630,28 @@
       </c>
     </row>
     <row r="191">
-      <c r="B191" t="s" s="2">
+      <c r="B191" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C191" t="s" s="2">
+      <c r="C191" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D191" t="s" s="2">
+      <c r="D191" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E191" t="s" s="2">
+      <c r="E191" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F191" t="s" s="2">
+      <c r="F191" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G191" t="s" s="2">
+      <c r="G191" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H191" t="s" s="2">
+      <c r="H191" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I191" t="s" s="2">
+      <c r="I191" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5698,10 +5710,10 @@
       <c r="I193">
         <f>((C193-C192)^2+(D193- D192)^2)^.5</f>
       </c>
-      <c r="J193" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K193" s="2" t="s">
+      <c r="J193" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K193" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L193" t="n">
@@ -5745,28 +5757,28 @@
       </c>
     </row>
     <row r="195">
-      <c r="A195" t="s" s="2">
+      <c r="A195" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B195" t="s" s="2">
+      <c r="B195" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C195" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D195" t="s" s="2">
+      <c r="C195" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D195" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E195" t="s" s="2">
+      <c r="E195" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F195" t="s" s="2">
+      <c r="F195" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G195" t="s" s="2">
+      <c r="G195" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H195" t="s" s="2">
+      <c r="H195" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5791,28 +5803,28 @@
       </c>
     </row>
     <row r="197">
-      <c r="B197" t="s" s="2">
+      <c r="B197" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C197" t="s" s="2">
+      <c r="C197" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D197" t="s" s="2">
+      <c r="D197" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E197" t="s" s="2">
+      <c r="E197" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F197" t="s" s="2">
+      <c r="F197" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G197" t="s" s="2">
+      <c r="G197" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H197" t="s" s="2">
+      <c r="H197" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I197" t="s" s="2">
+      <c r="I197" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5871,10 +5883,10 @@
       <c r="I199">
         <f>((C199-C198)^2+(D199- D198)^2)^.5</f>
       </c>
-      <c r="J199" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K199" s="2" t="s">
+      <c r="J199" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K199" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L199" t="n">
@@ -5918,28 +5930,28 @@
       </c>
     </row>
     <row r="201">
-      <c r="A201" t="s" s="2">
+      <c r="A201" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B201" t="s" s="2">
+      <c r="B201" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C201" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D201" t="s" s="2">
+      <c r="C201" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D201" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E201" t="s" s="2">
+      <c r="E201" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F201" t="s" s="2">
+      <c r="F201" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G201" t="s" s="2">
+      <c r="G201" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H201" t="s" s="2">
+      <c r="H201" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5964,28 +5976,28 @@
       </c>
     </row>
     <row r="203">
-      <c r="B203" t="s" s="2">
+      <c r="B203" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C203" t="s" s="2">
+      <c r="C203" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D203" t="s" s="2">
+      <c r="D203" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E203" t="s" s="2">
+      <c r="E203" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F203" t="s" s="2">
+      <c r="F203" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G203" t="s" s="2">
+      <c r="G203" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H203" t="s" s="2">
+      <c r="H203" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I203" t="s" s="2">
+      <c r="I203" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6044,10 +6056,10 @@
       <c r="I205">
         <f>((C205-C204)^2+(D205- D204)^2)^.5</f>
       </c>
-      <c r="J205" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K205" s="2" t="s">
+      <c r="J205" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K205" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L205" t="n">
@@ -6091,28 +6103,28 @@
       </c>
     </row>
     <row r="207">
-      <c r="A207" t="s" s="2">
+      <c r="A207" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B207" t="s" s="2">
+      <c r="B207" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C207" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D207" t="s" s="2">
+      <c r="C207" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D207" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E207" t="s" s="2">
+      <c r="E207" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F207" t="s" s="2">
+      <c r="F207" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G207" t="s" s="2">
+      <c r="G207" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H207" t="s" s="2">
+      <c r="H207" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6137,28 +6149,28 @@
       </c>
     </row>
     <row r="209">
-      <c r="B209" t="s" s="2">
+      <c r="B209" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C209" t="s" s="2">
+      <c r="C209" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D209" t="s" s="2">
+      <c r="D209" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E209" t="s" s="2">
+      <c r="E209" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F209" t="s" s="2">
+      <c r="F209" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G209" t="s" s="2">
+      <c r="G209" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H209" t="s" s="2">
+      <c r="H209" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I209" t="s" s="2">
+      <c r="I209" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6217,10 +6229,10 @@
       <c r="I211">
         <f>((C211-C210)^2+(D211- D210)^2)^.5</f>
       </c>
-      <c r="J211" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K211" s="2" t="s">
+      <c r="J211" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K211" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L211" t="n">
@@ -6264,28 +6276,28 @@
       </c>
     </row>
     <row r="213">
-      <c r="A213" t="s" s="2">
+      <c r="A213" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B213" t="s" s="2">
+      <c r="B213" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C213" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D213" t="s" s="2">
+      <c r="C213" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D213" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E213" t="s" s="2">
+      <c r="E213" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F213" t="s" s="2">
+      <c r="F213" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G213" t="s" s="2">
+      <c r="G213" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H213" t="s" s="2">
+      <c r="H213" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6310,28 +6322,28 @@
       </c>
     </row>
     <row r="215">
-      <c r="B215" t="s" s="2">
+      <c r="B215" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C215" t="s" s="2">
+      <c r="C215" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D215" t="s" s="2">
+      <c r="D215" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E215" t="s" s="2">
+      <c r="E215" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F215" t="s" s="2">
+      <c r="F215" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G215" t="s" s="2">
+      <c r="G215" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H215" t="s" s="2">
+      <c r="H215" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I215" t="s" s="2">
+      <c r="I215" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6390,10 +6402,10 @@
       <c r="I217">
         <f>((C217-C216)^2+(D217- D216)^2)^.5</f>
       </c>
-      <c r="J217" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K217" s="2" t="s">
+      <c r="J217" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K217" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L217" t="n">
@@ -6437,28 +6449,28 @@
       </c>
     </row>
     <row r="219">
-      <c r="A219" t="s" s="2">
+      <c r="A219" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B219" t="s" s="2">
+      <c r="B219" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C219" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D219" t="s" s="2">
+      <c r="C219" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D219" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E219" t="s" s="2">
+      <c r="E219" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F219" t="s" s="2">
+      <c r="F219" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G219" t="s" s="2">
+      <c r="G219" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H219" t="s" s="2">
+      <c r="H219" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6483,28 +6495,28 @@
       </c>
     </row>
     <row r="221">
-      <c r="B221" t="s" s="2">
+      <c r="B221" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C221" t="s" s="2">
+      <c r="C221" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D221" t="s" s="2">
+      <c r="D221" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E221" t="s" s="2">
+      <c r="E221" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F221" t="s" s="2">
+      <c r="F221" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G221" t="s" s="2">
+      <c r="G221" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H221" t="s" s="2">
+      <c r="H221" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I221" t="s" s="2">
+      <c r="I221" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6563,10 +6575,10 @@
       <c r="I223">
         <f>((C223-C222)^2+(D223- D222)^2)^.5</f>
       </c>
-      <c r="J223" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K223" s="2" t="s">
+      <c r="J223" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K223" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L223" t="n">
@@ -6610,28 +6622,28 @@
       </c>
     </row>
     <row r="225">
-      <c r="A225" t="s" s="2">
+      <c r="A225" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B225" t="s" s="2">
+      <c r="B225" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C225" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D225" t="s" s="2">
+      <c r="C225" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D225" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E225" t="s" s="2">
+      <c r="E225" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F225" t="s" s="2">
+      <c r="F225" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G225" t="s" s="2">
+      <c r="G225" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H225" t="s" s="2">
+      <c r="H225" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6656,28 +6668,28 @@
       </c>
     </row>
     <row r="227">
-      <c r="B227" t="s" s="2">
+      <c r="B227" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C227" t="s" s="2">
+      <c r="C227" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D227" t="s" s="2">
+      <c r="D227" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E227" t="s" s="2">
+      <c r="E227" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F227" t="s" s="2">
+      <c r="F227" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G227" t="s" s="2">
+      <c r="G227" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H227" t="s" s="2">
+      <c r="H227" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I227" t="s" s="2">
+      <c r="I227" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6736,10 +6748,10 @@
       <c r="I229">
         <f>((C229-C228)^2+(D229- D228)^2)^.5</f>
       </c>
-      <c r="J229" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K229" s="2" t="s">
+      <c r="J229" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K229" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L229" t="n">
@@ -6783,28 +6795,28 @@
       </c>
     </row>
     <row r="231">
-      <c r="A231" t="s" s="2">
+      <c r="A231" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B231" t="s" s="2">
+      <c r="B231" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C231" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D231" t="s" s="2">
+      <c r="C231" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D231" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E231" t="s" s="2">
+      <c r="E231" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F231" t="s" s="2">
+      <c r="F231" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G231" t="s" s="2">
+      <c r="G231" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H231" t="s" s="2">
+      <c r="H231" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6829,28 +6841,28 @@
       </c>
     </row>
     <row r="233">
-      <c r="B233" t="s" s="2">
+      <c r="B233" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C233" t="s" s="2">
+      <c r="C233" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D233" t="s" s="2">
+      <c r="D233" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E233" t="s" s="2">
+      <c r="E233" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F233" t="s" s="2">
+      <c r="F233" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G233" t="s" s="2">
+      <c r="G233" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H233" t="s" s="2">
+      <c r="H233" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I233" t="s" s="2">
+      <c r="I233" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7170,10 +7182,10 @@
       <c r="I244">
         <f>((C244-C243)^2+(D244- D243)^2)^.5</f>
       </c>
-      <c r="J244" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K244" s="2" t="s">
+      <c r="J244" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K244" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L244" t="n">
@@ -7217,28 +7229,28 @@
       </c>
     </row>
     <row r="246">
-      <c r="A246" t="s" s="2">
+      <c r="A246" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B246" t="s" s="2">
+      <c r="B246" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C246" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D246" t="s" s="2">
+      <c r="C246" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D246" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E246" t="s" s="2">
+      <c r="E246" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F246" t="s" s="2">
+      <c r="F246" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G246" t="s" s="2">
+      <c r="G246" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H246" t="s" s="2">
+      <c r="H246" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7263,28 +7275,28 @@
       </c>
     </row>
     <row r="248">
-      <c r="B248" t="s" s="2">
+      <c r="B248" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C248" t="s" s="2">
+      <c r="C248" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D248" t="s" s="2">
+      <c r="D248" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E248" t="s" s="2">
+      <c r="E248" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F248" t="s" s="2">
+      <c r="F248" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G248" t="s" s="2">
+      <c r="G248" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H248" t="s" s="2">
+      <c r="H248" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I248" t="s" s="2">
+      <c r="I248" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7343,10 +7355,10 @@
       <c r="I250">
         <f>((C250-C249)^2+(D250- D249)^2)^.5</f>
       </c>
-      <c r="J250" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K250" s="2" t="s">
+      <c r="J250" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K250" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L250" t="n">
@@ -7390,28 +7402,28 @@
       </c>
     </row>
     <row r="252">
-      <c r="A252" t="s" s="2">
+      <c r="A252" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B252" t="s" s="2">
+      <c r="B252" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C252" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D252" t="s" s="2">
+      <c r="C252" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D252" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E252" t="s" s="2">
+      <c r="E252" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F252" t="s" s="2">
+      <c r="F252" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G252" t="s" s="2">
+      <c r="G252" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H252" t="s" s="2">
+      <c r="H252" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7436,28 +7448,28 @@
       </c>
     </row>
     <row r="254">
-      <c r="B254" t="s" s="2">
+      <c r="B254" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C254" t="s" s="2">
+      <c r="C254" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D254" t="s" s="2">
+      <c r="D254" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E254" t="s" s="2">
+      <c r="E254" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F254" t="s" s="2">
+      <c r="F254" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G254" t="s" s="2">
+      <c r="G254" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H254" t="s" s="2">
+      <c r="H254" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I254" t="s" s="2">
+      <c r="I254" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7516,10 +7528,10 @@
       <c r="I256">
         <f>((C256-C255)^2+(D256- D255)^2)^.5</f>
       </c>
-      <c r="J256" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K256" s="2" t="s">
+      <c r="J256" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K256" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L256" t="n">
@@ -7563,28 +7575,28 @@
       </c>
     </row>
     <row r="258">
-      <c r="A258" t="s" s="2">
+      <c r="A258" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B258" t="s" s="2">
+      <c r="B258" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C258" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D258" t="s" s="2">
+      <c r="C258" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D258" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E258" t="s" s="2">
+      <c r="E258" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F258" t="s" s="2">
+      <c r="F258" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G258" t="s" s="2">
+      <c r="G258" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H258" t="s" s="2">
+      <c r="H258" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7609,28 +7621,28 @@
       </c>
     </row>
     <row r="260">
-      <c r="B260" t="s" s="2">
+      <c r="B260" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C260" t="s" s="2">
+      <c r="C260" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D260" t="s" s="2">
+      <c r="D260" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E260" t="s" s="2">
+      <c r="E260" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F260" t="s" s="2">
+      <c r="F260" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G260" t="s" s="2">
+      <c r="G260" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H260" t="s" s="2">
+      <c r="H260" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I260" t="s" s="2">
+      <c r="I260" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7689,10 +7701,10 @@
       <c r="I262">
         <f>((C262-C261)^2+(D262- D261)^2)^.5</f>
       </c>
-      <c r="J262" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K262" s="2" t="s">
+      <c r="J262" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K262" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L262" t="n">
@@ -7736,28 +7748,28 @@
       </c>
     </row>
     <row r="264">
-      <c r="A264" t="s" s="2">
+      <c r="A264" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B264" t="s" s="2">
+      <c r="B264" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C264" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D264" t="s" s="2">
+      <c r="C264" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D264" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E264" t="s" s="2">
+      <c r="E264" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F264" t="s" s="2">
+      <c r="F264" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G264" t="s" s="2">
+      <c r="G264" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H264" t="s" s="2">
+      <c r="H264" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7782,28 +7794,28 @@
       </c>
     </row>
     <row r="266">
-      <c r="B266" t="s" s="2">
+      <c r="B266" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C266" t="s" s="2">
+      <c r="C266" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D266" t="s" s="2">
+      <c r="D266" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E266" t="s" s="2">
+      <c r="E266" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F266" t="s" s="2">
+      <c r="F266" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G266" t="s" s="2">
+      <c r="G266" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H266" t="s" s="2">
+      <c r="H266" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I266" t="s" s="2">
+      <c r="I266" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7862,10 +7874,10 @@
       <c r="I268">
         <f>((C268-C267)^2+(D268- D267)^2)^.5</f>
       </c>
-      <c r="J268" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K268" s="2" t="s">
+      <c r="J268" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K268" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L268" t="n">
@@ -7909,28 +7921,28 @@
       </c>
     </row>
     <row r="270">
-      <c r="A270" t="s" s="2">
+      <c r="A270" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B270" t="s" s="2">
+      <c r="B270" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C270" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D270" t="s" s="2">
+      <c r="C270" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D270" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E270" t="s" s="2">
+      <c r="E270" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F270" t="s" s="2">
+      <c r="F270" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G270" t="s" s="2">
+      <c r="G270" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H270" t="s" s="2">
+      <c r="H270" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7955,28 +7967,28 @@
       </c>
     </row>
     <row r="272">
-      <c r="B272" t="s" s="2">
+      <c r="B272" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C272" t="s" s="2">
+      <c r="C272" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D272" t="s" s="2">
+      <c r="D272" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E272" t="s" s="2">
+      <c r="E272" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F272" t="s" s="2">
+      <c r="F272" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G272" t="s" s="2">
+      <c r="G272" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H272" t="s" s="2">
+      <c r="H272" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I272" t="s" s="2">
+      <c r="I272" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8035,10 +8047,10 @@
       <c r="I274">
         <f>((C274-C273)^2+(D274- D273)^2)^.5</f>
       </c>
-      <c r="J274" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K274" s="2" t="s">
+      <c r="J274" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K274" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L274" t="n">
@@ -8082,28 +8094,28 @@
       </c>
     </row>
     <row r="276">
-      <c r="A276" t="s" s="2">
+      <c r="A276" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B276" t="s" s="2">
+      <c r="B276" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C276" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D276" t="s" s="2">
+      <c r="C276" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D276" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E276" t="s" s="2">
+      <c r="E276" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F276" t="s" s="2">
+      <c r="F276" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G276" t="s" s="2">
+      <c r="G276" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H276" t="s" s="2">
+      <c r="H276" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8128,28 +8140,28 @@
       </c>
     </row>
     <row r="278">
-      <c r="B278" t="s" s="2">
+      <c r="B278" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C278" t="s" s="2">
+      <c r="C278" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D278" t="s" s="2">
+      <c r="D278" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E278" t="s" s="2">
+      <c r="E278" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F278" t="s" s="2">
+      <c r="F278" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G278" t="s" s="2">
+      <c r="G278" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H278" t="s" s="2">
+      <c r="H278" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I278" t="s" s="2">
+      <c r="I278" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8208,10 +8220,10 @@
       <c r="I280">
         <f>((C280-C279)^2+(D280- D279)^2)^.5</f>
       </c>
-      <c r="J280" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K280" s="2" t="s">
+      <c r="J280" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K280" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L280" t="n">
@@ -8255,28 +8267,28 @@
       </c>
     </row>
     <row r="282">
-      <c r="A282" t="s" s="2">
+      <c r="A282" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B282" t="s" s="2">
+      <c r="B282" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C282" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D282" t="s" s="2">
+      <c r="C282" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D282" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E282" t="s" s="2">
+      <c r="E282" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F282" t="s" s="2">
+      <c r="F282" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G282" t="s" s="2">
+      <c r="G282" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H282" t="s" s="2">
+      <c r="H282" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8301,28 +8313,28 @@
       </c>
     </row>
     <row r="284">
-      <c r="B284" t="s" s="2">
+      <c r="B284" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C284" t="s" s="2">
+      <c r="C284" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D284" t="s" s="2">
+      <c r="D284" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E284" t="s" s="2">
+      <c r="E284" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F284" t="s" s="2">
+      <c r="F284" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G284" t="s" s="2">
+      <c r="G284" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H284" t="s" s="2">
+      <c r="H284" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I284" t="s" s="2">
+      <c r="I284" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8381,10 +8393,10 @@
       <c r="I286">
         <f>((C286-C285)^2+(D286- D285)^2)^.5</f>
       </c>
-      <c r="J286" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K286" s="2" t="s">
+      <c r="J286" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K286" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L286" t="n">
@@ -8428,28 +8440,28 @@
       </c>
     </row>
     <row r="288">
-      <c r="A288" t="s" s="2">
+      <c r="A288" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B288" t="s" s="2">
+      <c r="B288" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C288" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D288" t="s" s="2">
+      <c r="C288" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D288" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E288" t="s" s="2">
+      <c r="E288" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F288" t="s" s="2">
+      <c r="F288" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G288" t="s" s="2">
+      <c r="G288" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H288" t="s" s="2">
+      <c r="H288" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8474,28 +8486,28 @@
       </c>
     </row>
     <row r="290">
-      <c r="B290" t="s" s="2">
+      <c r="B290" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C290" t="s" s="2">
+      <c r="C290" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D290" t="s" s="2">
+      <c r="D290" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E290" t="s" s="2">
+      <c r="E290" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F290" t="s" s="2">
+      <c r="F290" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G290" t="s" s="2">
+      <c r="G290" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H290" t="s" s="2">
+      <c r="H290" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I290" t="s" s="2">
+      <c r="I290" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8554,10 +8566,10 @@
       <c r="I292">
         <f>((C292-C291)^2+(D292- D291)^2)^.5</f>
       </c>
-      <c r="J292" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K292" s="2" t="s">
+      <c r="J292" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K292" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L292" t="n">
@@ -8601,28 +8613,28 @@
       </c>
     </row>
     <row r="294">
-      <c r="A294" t="s" s="2">
+      <c r="A294" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B294" t="s" s="2">
+      <c r="B294" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C294" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D294" t="s" s="2">
+      <c r="C294" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D294" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E294" t="s" s="2">
+      <c r="E294" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F294" t="s" s="2">
+      <c r="F294" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G294" t="s" s="2">
+      <c r="G294" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H294" t="s" s="2">
+      <c r="H294" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8647,28 +8659,28 @@
       </c>
     </row>
     <row r="296">
-      <c r="B296" t="s" s="2">
+      <c r="B296" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C296" t="s" s="2">
+      <c r="C296" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D296" t="s" s="2">
+      <c r="D296" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E296" t="s" s="2">
+      <c r="E296" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F296" t="s" s="2">
+      <c r="F296" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G296" t="s" s="2">
+      <c r="G296" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H296" t="s" s="2">
+      <c r="H296" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I296" t="s" s="2">
+      <c r="I296" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8727,10 +8739,10 @@
       <c r="I298">
         <f>((C298-C297)^2+(D298- D297)^2)^.5</f>
       </c>
-      <c r="J298" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K298" s="2" t="s">
+      <c r="J298" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K298" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L298" t="n">
@@ -8774,28 +8786,28 @@
       </c>
     </row>
     <row r="300">
-      <c r="A300" t="s" s="2">
+      <c r="A300" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B300" t="s" s="2">
+      <c r="B300" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C300" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D300" t="s" s="2">
+      <c r="C300" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D300" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E300" t="s" s="2">
+      <c r="E300" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F300" t="s" s="2">
+      <c r="F300" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G300" t="s" s="2">
+      <c r="G300" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H300" t="s" s="2">
+      <c r="H300" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8820,28 +8832,28 @@
       </c>
     </row>
     <row r="302">
-      <c r="B302" t="s" s="2">
+      <c r="B302" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C302" t="s" s="2">
+      <c r="C302" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D302" t="s" s="2">
+      <c r="D302" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E302" t="s" s="2">
+      <c r="E302" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F302" t="s" s="2">
+      <c r="F302" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G302" t="s" s="2">
+      <c r="G302" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H302" t="s" s="2">
+      <c r="H302" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I302" t="s" s="2">
+      <c r="I302" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8900,10 +8912,10 @@
       <c r="I304">
         <f>((C304-C303)^2+(D304- D303)^2)^.5</f>
       </c>
-      <c r="J304" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K304" s="2" t="s">
+      <c r="J304" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K304" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L304" t="n">
@@ -8947,28 +8959,28 @@
       </c>
     </row>
     <row r="306">
-      <c r="A306" t="s" s="2">
+      <c r="A306" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B306" t="s" s="2">
+      <c r="B306" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C306" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D306" t="s" s="2">
+      <c r="C306" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D306" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E306" t="s" s="2">
+      <c r="E306" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F306" t="s" s="2">
+      <c r="F306" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G306" t="s" s="2">
+      <c r="G306" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H306" t="s" s="2">
+      <c r="H306" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8993,28 +9005,28 @@
       </c>
     </row>
     <row r="308">
-      <c r="B308" t="s" s="2">
+      <c r="B308" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C308" t="s" s="2">
+      <c r="C308" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D308" t="s" s="2">
+      <c r="D308" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E308" t="s" s="2">
+      <c r="E308" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F308" t="s" s="2">
+      <c r="F308" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G308" t="s" s="2">
+      <c r="G308" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H308" t="s" s="2">
+      <c r="H308" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I308" t="s" s="2">
+      <c r="I308" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9073,10 +9085,10 @@
       <c r="I310">
         <f>((C310-C309)^2+(D310- D309)^2)^.5</f>
       </c>
-      <c r="J310" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K310" s="2" t="s">
+      <c r="J310" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K310" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L310" t="n">
@@ -9120,28 +9132,28 @@
       </c>
     </row>
     <row r="312">
-      <c r="A312" t="s" s="2">
+      <c r="A312" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B312" t="s" s="2">
+      <c r="B312" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C312" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D312" t="s" s="2">
+      <c r="C312" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D312" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E312" t="s" s="2">
+      <c r="E312" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F312" t="s" s="2">
+      <c r="F312" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G312" t="s" s="2">
+      <c r="G312" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H312" t="s" s="2">
+      <c r="H312" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9166,28 +9178,28 @@
       </c>
     </row>
     <row r="314">
-      <c r="B314" t="s" s="2">
+      <c r="B314" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C314" t="s" s="2">
+      <c r="C314" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D314" t="s" s="2">
+      <c r="D314" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E314" t="s" s="2">
+      <c r="E314" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F314" t="s" s="2">
+      <c r="F314" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G314" t="s" s="2">
+      <c r="G314" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H314" t="s" s="2">
+      <c r="H314" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I314" t="s" s="2">
+      <c r="I314" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9246,10 +9258,10 @@
       <c r="I316">
         <f>((C316-C315)^2+(D316- D315)^2)^.5</f>
       </c>
-      <c r="J316" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K316" s="2" t="s">
+      <c r="J316" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K316" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L316" t="n">
@@ -9293,28 +9305,28 @@
       </c>
     </row>
     <row r="318">
-      <c r="A318" t="s" s="2">
+      <c r="A318" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B318" t="s" s="2">
+      <c r="B318" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C318" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D318" t="s" s="2">
+      <c r="C318" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D318" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E318" t="s" s="2">
+      <c r="E318" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F318" t="s" s="2">
+      <c r="F318" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G318" t="s" s="2">
+      <c r="G318" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H318" t="s" s="2">
+      <c r="H318" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9339,28 +9351,28 @@
       </c>
     </row>
     <row r="320">
-      <c r="B320" t="s" s="2">
+      <c r="B320" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C320" t="s" s="2">
+      <c r="C320" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D320" t="s" s="2">
+      <c r="D320" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E320" t="s" s="2">
+      <c r="E320" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F320" t="s" s="2">
+      <c r="F320" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G320" t="s" s="2">
+      <c r="G320" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H320" t="s" s="2">
+      <c r="H320" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I320" t="s" s="2">
+      <c r="I320" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9419,10 +9431,10 @@
       <c r="I322">
         <f>((C322-C321)^2+(D322- D321)^2)^.5</f>
       </c>
-      <c r="J322" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K322" s="2" t="s">
+      <c r="J322" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K322" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L322" t="n">
@@ -9466,28 +9478,28 @@
       </c>
     </row>
     <row r="324">
-      <c r="A324" t="s" s="2">
+      <c r="A324" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B324" t="s" s="2">
+      <c r="B324" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C324" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D324" t="s" s="2">
+      <c r="C324" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D324" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E324" t="s" s="2">
+      <c r="E324" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F324" t="s" s="2">
+      <c r="F324" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G324" t="s" s="2">
+      <c r="G324" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H324" t="s" s="2">
+      <c r="H324" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9512,28 +9524,28 @@
       </c>
     </row>
     <row r="326">
-      <c r="B326" t="s" s="2">
+      <c r="B326" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C326" t="s" s="2">
+      <c r="C326" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D326" t="s" s="2">
+      <c r="D326" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E326" t="s" s="2">
+      <c r="E326" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F326" t="s" s="2">
+      <c r="F326" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G326" t="s" s="2">
+      <c r="G326" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H326" t="s" s="2">
+      <c r="H326" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I326" t="s" s="2">
+      <c r="I326" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9592,10 +9604,10 @@
       <c r="I328">
         <f>((C328-C327)^2+(D328- D327)^2)^.5</f>
       </c>
-      <c r="J328" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K328" s="2" t="s">
+      <c r="J328" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K328" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L328" t="n">
@@ -9639,28 +9651,28 @@
       </c>
     </row>
     <row r="330">
-      <c r="A330" t="s" s="2">
+      <c r="A330" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B330" t="s" s="2">
+      <c r="B330" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C330" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D330" t="s" s="2">
+      <c r="C330" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D330" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E330" t="s" s="2">
+      <c r="E330" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F330" t="s" s="2">
+      <c r="F330" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G330" t="s" s="2">
+      <c r="G330" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H330" t="s" s="2">
+      <c r="H330" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9685,28 +9697,28 @@
       </c>
     </row>
     <row r="332">
-      <c r="B332" t="s" s="2">
+      <c r="B332" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C332" t="s" s="2">
+      <c r="C332" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D332" t="s" s="2">
+      <c r="D332" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E332" t="s" s="2">
+      <c r="E332" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F332" t="s" s="2">
+      <c r="F332" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G332" t="s" s="2">
+      <c r="G332" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H332" t="s" s="2">
+      <c r="H332" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I332" t="s" s="2">
+      <c r="I332" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9765,10 +9777,10 @@
       <c r="I334">
         <f>((C334-C333)^2+(D334- D333)^2)^.5</f>
       </c>
-      <c r="J334" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K334" s="2" t="s">
+      <c r="J334" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K334" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L334" t="n">
@@ -9812,28 +9824,28 @@
       </c>
     </row>
     <row r="336">
-      <c r="A336" t="s" s="2">
+      <c r="A336" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B336" t="s" s="2">
+      <c r="B336" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C336" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D336" t="s" s="2">
+      <c r="C336" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D336" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E336" t="s" s="2">
+      <c r="E336" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F336" t="s" s="2">
+      <c r="F336" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G336" t="s" s="2">
+      <c r="G336" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H336" t="s" s="2">
+      <c r="H336" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9858,28 +9870,28 @@
       </c>
     </row>
     <row r="338">
-      <c r="B338" t="s" s="2">
+      <c r="B338" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C338" t="s" s="2">
+      <c r="C338" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D338" t="s" s="2">
+      <c r="D338" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E338" t="s" s="2">
+      <c r="E338" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F338" t="s" s="2">
+      <c r="F338" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G338" t="s" s="2">
+      <c r="G338" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H338" t="s" s="2">
+      <c r="H338" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I338" t="s" s="2">
+      <c r="I338" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9938,10 +9950,10 @@
       <c r="I340">
         <f>((C340-C339)^2+(D340- D339)^2)^.5</f>
       </c>
-      <c r="J340" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K340" s="2" t="s">
+      <c r="J340" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K340" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L340" t="n">
@@ -9985,28 +9997,28 @@
       </c>
     </row>
     <row r="342">
-      <c r="A342" t="s" s="2">
+      <c r="A342" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B342" t="s" s="2">
+      <c r="B342" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C342" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D342" t="s" s="2">
+      <c r="C342" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D342" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E342" t="s" s="2">
+      <c r="E342" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F342" t="s" s="2">
+      <c r="F342" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G342" t="s" s="2">
+      <c r="G342" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H342" t="s" s="2">
+      <c r="H342" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10031,28 +10043,28 @@
       </c>
     </row>
     <row r="344">
-      <c r="B344" t="s" s="2">
+      <c r="B344" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C344" t="s" s="2">
+      <c r="C344" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D344" t="s" s="2">
+      <c r="D344" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E344" t="s" s="2">
+      <c r="E344" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F344" t="s" s="2">
+      <c r="F344" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G344" t="s" s="2">
+      <c r="G344" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H344" t="s" s="2">
+      <c r="H344" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I344" t="s" s="2">
+      <c r="I344" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10111,10 +10123,10 @@
       <c r="I346">
         <f>((C346-C345)^2+(D346- D345)^2)^.5</f>
       </c>
-      <c r="J346" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K346" s="2" t="s">
+      <c r="J346" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K346" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L346" t="n">
@@ -10158,28 +10170,28 @@
       </c>
     </row>
     <row r="348">
-      <c r="A348" t="s" s="2">
+      <c r="A348" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B348" t="s" s="2">
+      <c r="B348" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C348" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D348" t="s" s="2">
+      <c r="C348" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D348" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E348" t="s" s="2">
+      <c r="E348" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F348" t="s" s="2">
+      <c r="F348" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G348" t="s" s="2">
+      <c r="G348" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H348" t="s" s="2">
+      <c r="H348" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10204,28 +10216,28 @@
       </c>
     </row>
     <row r="350">
-      <c r="B350" t="s" s="2">
+      <c r="B350" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C350" t="s" s="2">
+      <c r="C350" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D350" t="s" s="2">
+      <c r="D350" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E350" t="s" s="2">
+      <c r="E350" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F350" t="s" s="2">
+      <c r="F350" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G350" t="s" s="2">
+      <c r="G350" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H350" t="s" s="2">
+      <c r="H350" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I350" t="s" s="2">
+      <c r="I350" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10284,10 +10296,10 @@
       <c r="I352">
         <f>((C352-C351)^2+(D352- D351)^2)^.5</f>
       </c>
-      <c r="J352" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K352" s="2" t="s">
+      <c r="J352" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K352" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L352" t="n">
@@ -10331,28 +10343,28 @@
       </c>
     </row>
     <row r="354">
-      <c r="A354" t="s" s="2">
+      <c r="A354" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B354" t="s" s="2">
+      <c r="B354" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C354" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D354" t="s" s="2">
+      <c r="C354" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D354" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E354" t="s" s="2">
+      <c r="E354" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F354" t="s" s="2">
+      <c r="F354" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G354" t="s" s="2">
+      <c r="G354" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H354" t="s" s="2">
+      <c r="H354" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10377,28 +10389,28 @@
       </c>
     </row>
     <row r="356">
-      <c r="B356" t="s" s="2">
+      <c r="B356" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C356" t="s" s="2">
+      <c r="C356" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D356" t="s" s="2">
+      <c r="D356" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E356" t="s" s="2">
+      <c r="E356" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F356" t="s" s="2">
+      <c r="F356" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G356" t="s" s="2">
+      <c r="G356" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H356" t="s" s="2">
+      <c r="H356" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I356" t="s" s="2">
+      <c r="I356" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10457,10 +10469,10 @@
       <c r="I358">
         <f>((C358-C357)^2+(D358- D357)^2)^.5</f>
       </c>
-      <c r="J358" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K358" s="2" t="s">
+      <c r="J358" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K358" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L358" t="n">
@@ -10504,28 +10516,28 @@
       </c>
     </row>
     <row r="360">
-      <c r="A360" t="s" s="2">
+      <c r="A360" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B360" t="s" s="2">
+      <c r="B360" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C360" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D360" t="s" s="2">
+      <c r="C360" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D360" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E360" t="s" s="2">
+      <c r="E360" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F360" t="s" s="2">
+      <c r="F360" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G360" t="s" s="2">
+      <c r="G360" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H360" t="s" s="2">
+      <c r="H360" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10550,28 +10562,28 @@
       </c>
     </row>
     <row r="362">
-      <c r="B362" t="s" s="2">
+      <c r="B362" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C362" t="s" s="2">
+      <c r="C362" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D362" t="s" s="2">
+      <c r="D362" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E362" t="s" s="2">
+      <c r="E362" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F362" t="s" s="2">
+      <c r="F362" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G362" t="s" s="2">
+      <c r="G362" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H362" t="s" s="2">
+      <c r="H362" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I362" t="s" s="2">
+      <c r="I362" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10630,10 +10642,10 @@
       <c r="I364">
         <f>((C364-C363)^2+(D364- D363)^2)^.5</f>
       </c>
-      <c r="J364" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K364" s="2" t="s">
+      <c r="J364" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K364" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L364" t="n">
@@ -10677,28 +10689,28 @@
       </c>
     </row>
     <row r="366">
-      <c r="A366" t="s" s="2">
+      <c r="A366" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B366" t="s" s="2">
+      <c r="B366" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C366" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D366" t="s" s="2">
+      <c r="C366" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D366" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E366" t="s" s="2">
+      <c r="E366" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F366" t="s" s="2">
+      <c r="F366" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G366" t="s" s="2">
+      <c r="G366" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H366" t="s" s="2">
+      <c r="H366" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10723,28 +10735,28 @@
       </c>
     </row>
     <row r="368">
-      <c r="B368" t="s" s="2">
+      <c r="B368" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C368" t="s" s="2">
+      <c r="C368" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D368" t="s" s="2">
+      <c r="D368" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E368" t="s" s="2">
+      <c r="E368" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F368" t="s" s="2">
+      <c r="F368" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G368" t="s" s="2">
+      <c r="G368" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H368" t="s" s="2">
+      <c r="H368" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I368" t="s" s="2">
+      <c r="I368" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10803,10 +10815,10 @@
       <c r="I370">
         <f>((C370-C369)^2+(D370- D369)^2)^.5</f>
       </c>
-      <c r="J370" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K370" s="2" t="s">
+      <c r="J370" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K370" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L370" t="n">
@@ -10850,28 +10862,28 @@
       </c>
     </row>
     <row r="372">
-      <c r="A372" t="s" s="2">
+      <c r="A372" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B372" t="s" s="2">
+      <c r="B372" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C372" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D372" t="s" s="2">
+      <c r="C372" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D372" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E372" t="s" s="2">
+      <c r="E372" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F372" t="s" s="2">
+      <c r="F372" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G372" t="s" s="2">
+      <c r="G372" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H372" t="s" s="2">
+      <c r="H372" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10896,28 +10908,28 @@
       </c>
     </row>
     <row r="374">
-      <c r="B374" t="s" s="2">
+      <c r="B374" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C374" t="s" s="2">
+      <c r="C374" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D374" t="s" s="2">
+      <c r="D374" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E374" t="s" s="2">
+      <c r="E374" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F374" t="s" s="2">
+      <c r="F374" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G374" t="s" s="2">
+      <c r="G374" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H374" t="s" s="2">
+      <c r="H374" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I374" t="s" s="2">
+      <c r="I374" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10976,10 +10988,10 @@
       <c r="I376">
         <f>((C376-C375)^2+(D376- D375)^2)^.5</f>
       </c>
-      <c r="J376" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K376" s="2" t="s">
+      <c r="J376" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K376" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L376" t="n">
@@ -11023,28 +11035,28 @@
       </c>
     </row>
     <row r="378">
-      <c r="A378" t="s" s="2">
+      <c r="A378" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B378" t="s" s="2">
+      <c r="B378" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C378" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D378" t="s" s="2">
+      <c r="C378" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D378" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E378" t="s" s="2">
+      <c r="E378" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F378" t="s" s="2">
+      <c r="F378" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G378" t="s" s="2">
+      <c r="G378" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H378" t="s" s="2">
+      <c r="H378" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -11069,28 +11081,28 @@
       </c>
     </row>
     <row r="380">
-      <c r="B380" t="s" s="2">
+      <c r="B380" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C380" t="s" s="2">
+      <c r="C380" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D380" t="s" s="2">
+      <c r="D380" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E380" t="s" s="2">
+      <c r="E380" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F380" t="s" s="2">
+      <c r="F380" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G380" t="s" s="2">
+      <c r="G380" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H380" t="s" s="2">
+      <c r="H380" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I380" t="s" s="2">
+      <c r="I380" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11149,10 +11161,10 @@
       <c r="I382">
         <f>((C382-C381)^2+(D382- D381)^2)^.5</f>
       </c>
-      <c r="J382" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K382" s="2" t="s">
+      <c r="J382" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K382" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L382" t="n">
@@ -11196,28 +11208,28 @@
       </c>
     </row>
     <row r="384">
-      <c r="A384" t="s" s="2">
+      <c r="A384" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B384" t="s" s="2">
+      <c r="B384" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C384" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D384" t="s" s="2">
+      <c r="C384" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D384" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E384" t="s" s="2">
+      <c r="E384" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F384" t="s" s="2">
+      <c r="F384" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G384" t="s" s="2">
+      <c r="G384" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H384" t="s" s="2">
+      <c r="H384" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -11242,28 +11254,28 @@
       </c>
     </row>
     <row r="386">
-      <c r="B386" t="s" s="2">
+      <c r="B386" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C386" t="s" s="2">
+      <c r="C386" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D386" t="s" s="2">
+      <c r="D386" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E386" t="s" s="2">
+      <c r="E386" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F386" t="s" s="2">
+      <c r="F386" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G386" t="s" s="2">
+      <c r="G386" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H386" t="s" s="2">
+      <c r="H386" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I386" t="s" s="2">
+      <c r="I386" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11322,10 +11334,10 @@
       <c r="I388">
         <f>((C388-C387)^2+(D388- D387)^2)^.5</f>
       </c>
-      <c r="J388" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K388" s="2" t="s">
+      <c r="J388" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K388" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L388" t="n">
@@ -11369,28 +11381,28 @@
       </c>
     </row>
     <row r="390">
-      <c r="A390" t="s" s="2">
+      <c r="A390" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B390" t="s" s="2">
+      <c r="B390" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C390" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D390" t="s" s="2">
+      <c r="C390" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D390" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E390" t="s" s="2">
+      <c r="E390" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F390" t="s" s="2">
+      <c r="F390" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G390" t="s" s="2">
+      <c r="G390" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H390" t="s" s="2">
+      <c r="H390" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -11415,28 +11427,28 @@
       </c>
     </row>
     <row r="392">
-      <c r="B392" t="s" s="2">
+      <c r="B392" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C392" t="s" s="2">
+      <c r="C392" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D392" t="s" s="2">
+      <c r="D392" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E392" t="s" s="2">
+      <c r="E392" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F392" t="s" s="2">
+      <c r="F392" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G392" t="s" s="2">
+      <c r="G392" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H392" t="s" s="2">
+      <c r="H392" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I392" t="s" s="2">
+      <c r="I392" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11495,10 +11507,10 @@
       <c r="I394">
         <f>((C394-C393)^2+(D394- D393)^2)^.5</f>
       </c>
-      <c r="J394" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K394" s="2" t="s">
+      <c r="J394" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K394" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L394" t="n">
@@ -11542,28 +11554,28 @@
       </c>
     </row>
     <row r="396">
-      <c r="A396" t="s" s="2">
+      <c r="A396" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B396" t="s" s="2">
+      <c r="B396" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C396" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D396" t="s" s="2">
+      <c r="C396" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D396" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E396" t="s" s="2">
+      <c r="E396" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F396" t="s" s="2">
+      <c r="F396" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G396" t="s" s="2">
+      <c r="G396" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H396" t="s" s="2">
+      <c r="H396" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -11588,28 +11600,28 @@
       </c>
     </row>
     <row r="398">
-      <c r="B398" t="s" s="2">
+      <c r="B398" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C398" t="s" s="2">
+      <c r="C398" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D398" t="s" s="2">
+      <c r="D398" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E398" t="s" s="2">
+      <c r="E398" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F398" t="s" s="2">
+      <c r="F398" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G398" t="s" s="2">
+      <c r="G398" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H398" t="s" s="2">
+      <c r="H398" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I398" t="s" s="2">
+      <c r="I398" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11668,10 +11680,10 @@
       <c r="I400">
         <f>((C400-C399)^2+(D400- D399)^2)^.5</f>
       </c>
-      <c r="J400" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K400" s="2" t="s">
+      <c r="J400" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K400" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L400" t="n">
@@ -11715,28 +11727,28 @@
       </c>
     </row>
     <row r="402">
-      <c r="A402" t="s" s="2">
+      <c r="A402" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B402" t="s" s="2">
+      <c r="B402" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C402" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D402" t="s" s="2">
+      <c r="C402" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D402" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E402" t="s" s="2">
+      <c r="E402" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F402" t="s" s="2">
+      <c r="F402" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G402" t="s" s="2">
+      <c r="G402" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H402" t="s" s="2">
+      <c r="H402" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -11761,28 +11773,28 @@
       </c>
     </row>
     <row r="404">
-      <c r="B404" t="s" s="2">
+      <c r="B404" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C404" t="s" s="2">
+      <c r="C404" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D404" t="s" s="2">
+      <c r="D404" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E404" t="s" s="2">
+      <c r="E404" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F404" t="s" s="2">
+      <c r="F404" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G404" t="s" s="2">
+      <c r="G404" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H404" t="s" s="2">
+      <c r="H404" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I404" t="s" s="2">
+      <c r="I404" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11841,10 +11853,10 @@
       <c r="I406">
         <f>((C406-C405)^2+(D406- D405)^2)^.5</f>
       </c>
-      <c r="J406" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K406" s="2" t="s">
+      <c r="J406" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K406" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L406" t="n">
@@ -11888,28 +11900,28 @@
       </c>
     </row>
     <row r="408">
-      <c r="A408" t="s" s="2">
+      <c r="A408" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B408" t="s" s="2">
+      <c r="B408" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C408" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D408" t="s" s="2">
+      <c r="C408" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D408" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E408" t="s" s="2">
+      <c r="E408" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F408" t="s" s="2">
+      <c r="F408" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G408" t="s" s="2">
+      <c r="G408" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H408" t="s" s="2">
+      <c r="H408" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -11934,28 +11946,28 @@
       </c>
     </row>
     <row r="410">
-      <c r="B410" t="s" s="2">
+      <c r="B410" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C410" t="s" s="2">
+      <c r="C410" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D410" t="s" s="2">
+      <c r="D410" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E410" t="s" s="2">
+      <c r="E410" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F410" t="s" s="2">
+      <c r="F410" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G410" t="s" s="2">
+      <c r="G410" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H410" t="s" s="2">
+      <c r="H410" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I410" t="s" s="2">
+      <c r="I410" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -12014,10 +12026,10 @@
       <c r="I412">
         <f>((C412-C411)^2+(D412- D411)^2)^.5</f>
       </c>
-      <c r="J412" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K412" s="2" t="s">
+      <c r="J412" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K412" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L412" t="n">
@@ -12061,28 +12073,28 @@
       </c>
     </row>
     <row r="414">
-      <c r="A414" t="s" s="2">
+      <c r="A414" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B414" t="s" s="2">
+      <c r="B414" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C414" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D414" t="s" s="2">
+      <c r="C414" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D414" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E414" t="s" s="2">
+      <c r="E414" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F414" t="s" s="2">
+      <c r="F414" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G414" t="s" s="2">
+      <c r="G414" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H414" t="s" s="2">
+      <c r="H414" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -12107,28 +12119,28 @@
       </c>
     </row>
     <row r="416">
-      <c r="B416" t="s" s="2">
+      <c r="B416" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C416" t="s" s="2">
+      <c r="C416" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D416" t="s" s="2">
+      <c r="D416" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E416" t="s" s="2">
+      <c r="E416" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F416" t="s" s="2">
+      <c r="F416" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G416" t="s" s="2">
+      <c r="G416" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H416" t="s" s="2">
+      <c r="H416" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I416" t="s" s="2">
+      <c r="I416" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -12187,10 +12199,10 @@
       <c r="I418">
         <f>((C418-C417)^2+(D418- D417)^2)^.5</f>
       </c>
-      <c r="J418" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K418" s="2" t="s">
+      <c r="J418" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K418" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L418" t="n">
@@ -12234,28 +12246,28 @@
       </c>
     </row>
     <row r="420">
-      <c r="A420" t="s" s="2">
+      <c r="A420" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B420" t="s" s="2">
+      <c r="B420" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C420" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D420" t="s" s="2">
+      <c r="C420" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D420" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E420" t="s" s="2">
+      <c r="E420" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F420" t="s" s="2">
+      <c r="F420" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G420" t="s" s="2">
+      <c r="G420" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H420" t="s" s="2">
+      <c r="H420" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -12280,28 +12292,28 @@
       </c>
     </row>
     <row r="422">
-      <c r="B422" t="s" s="2">
+      <c r="B422" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C422" t="s" s="2">
+      <c r="C422" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D422" t="s" s="2">
+      <c r="D422" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E422" t="s" s="2">
+      <c r="E422" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F422" t="s" s="2">
+      <c r="F422" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G422" t="s" s="2">
+      <c r="G422" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H422" t="s" s="2">
+      <c r="H422" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I422" t="s" s="2">
+      <c r="I422" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -12360,10 +12372,10 @@
       <c r="I424">
         <f>((C424-C423)^2+(D424- D423)^2)^.5</f>
       </c>
-      <c r="J424" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K424" s="2" t="s">
+      <c r="J424" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K424" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L424" t="n">
@@ -12407,28 +12419,28 @@
       </c>
     </row>
     <row r="426">
-      <c r="A426" t="s" s="2">
+      <c r="A426" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B426" t="s" s="2">
+      <c r="B426" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C426" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D426" t="s" s="2">
+      <c r="C426" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D426" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E426" t="s" s="2">
+      <c r="E426" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F426" t="s" s="2">
+      <c r="F426" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G426" t="s" s="2">
+      <c r="G426" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H426" t="s" s="2">
+      <c r="H426" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -12453,28 +12465,28 @@
       </c>
     </row>
     <row r="428">
-      <c r="B428" t="s" s="2">
+      <c r="B428" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C428" t="s" s="2">
+      <c r="C428" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D428" t="s" s="2">
+      <c r="D428" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E428" t="s" s="2">
+      <c r="E428" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F428" t="s" s="2">
+      <c r="F428" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G428" t="s" s="2">
+      <c r="G428" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H428" t="s" s="2">
+      <c r="H428" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I428" t="s" s="2">
+      <c r="I428" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -12533,10 +12545,10 @@
       <c r="I430">
         <f>((C430-C429)^2+(D430- D429)^2)^.5</f>
       </c>
-      <c r="J430" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K430" s="2" t="s">
+      <c r="J430" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K430" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L430" t="n">
@@ -12580,28 +12592,28 @@
       </c>
     </row>
     <row r="432">
-      <c r="A432" t="s" s="2">
+      <c r="A432" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B432" t="s" s="2">
+      <c r="B432" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C432" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D432" t="s" s="2">
+      <c r="C432" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D432" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E432" t="s" s="2">
+      <c r="E432" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F432" t="s" s="2">
+      <c r="F432" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G432" t="s" s="2">
+      <c r="G432" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H432" t="s" s="2">
+      <c r="H432" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -12626,28 +12638,28 @@
       </c>
     </row>
     <row r="434">
-      <c r="B434" t="s" s="2">
+      <c r="B434" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C434" t="s" s="2">
+      <c r="C434" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D434" t="s" s="2">
+      <c r="D434" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E434" t="s" s="2">
+      <c r="E434" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F434" t="s" s="2">
+      <c r="F434" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G434" t="s" s="2">
+      <c r="G434" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H434" t="s" s="2">
+      <c r="H434" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I434" t="s" s="2">
+      <c r="I434" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -12706,10 +12718,10 @@
       <c r="I436">
         <f>((C436-C435)^2+(D436- D435)^2)^.5</f>
       </c>
-      <c r="J436" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K436" s="2" t="s">
+      <c r="J436" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K436" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L436" t="n">
@@ -12753,28 +12765,28 @@
       </c>
     </row>
     <row r="438">
-      <c r="A438" t="s" s="2">
+      <c r="A438" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B438" t="s" s="2">
+      <c r="B438" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C438" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D438" t="s" s="2">
+      <c r="C438" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D438" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E438" t="s" s="2">
+      <c r="E438" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F438" t="s" s="2">
+      <c r="F438" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G438" t="s" s="2">
+      <c r="G438" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H438" t="s" s="2">
+      <c r="H438" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -12799,28 +12811,28 @@
       </c>
     </row>
     <row r="440">
-      <c r="B440" t="s" s="2">
+      <c r="B440" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C440" t="s" s="2">
+      <c r="C440" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D440" t="s" s="2">
+      <c r="D440" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E440" t="s" s="2">
+      <c r="E440" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F440" t="s" s="2">
+      <c r="F440" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G440" t="s" s="2">
+      <c r="G440" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H440" t="s" s="2">
+      <c r="H440" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I440" t="s" s="2">
+      <c r="I440" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -12879,10 +12891,10 @@
       <c r="I442">
         <f>((C442-C441)^2+(D442- D441)^2)^.5</f>
       </c>
-      <c r="J442" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K442" s="2" t="s">
+      <c r="J442" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K442" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L442" t="n">
@@ -12926,28 +12938,28 @@
       </c>
     </row>
     <row r="444">
-      <c r="A444" t="s" s="2">
+      <c r="A444" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B444" t="s" s="2">
+      <c r="B444" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C444" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D444" t="s" s="2">
+      <c r="C444" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D444" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E444" t="s" s="2">
+      <c r="E444" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F444" t="s" s="2">
+      <c r="F444" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G444" t="s" s="2">
+      <c r="G444" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H444" t="s" s="2">
+      <c r="H444" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -12972,28 +12984,28 @@
       </c>
     </row>
     <row r="446">
-      <c r="B446" t="s" s="2">
+      <c r="B446" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C446" t="s" s="2">
+      <c r="C446" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D446" t="s" s="2">
+      <c r="D446" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E446" t="s" s="2">
+      <c r="E446" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F446" t="s" s="2">
+      <c r="F446" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G446" t="s" s="2">
+      <c r="G446" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H446" t="s" s="2">
+      <c r="H446" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I446" t="s" s="2">
+      <c r="I446" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -13052,10 +13064,10 @@
       <c r="I448">
         <f>((C448-C447)^2+(D448- D447)^2)^.5</f>
       </c>
-      <c r="J448" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K448" s="2" t="s">
+      <c r="J448" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K448" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L448" t="n">
@@ -13099,28 +13111,28 @@
       </c>
     </row>
     <row r="450">
-      <c r="A450" t="s" s="2">
+      <c r="A450" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B450" t="s" s="2">
+      <c r="B450" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C450" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D450" t="s" s="2">
+      <c r="C450" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D450" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E450" t="s" s="2">
+      <c r="E450" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F450" t="s" s="2">
+      <c r="F450" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G450" t="s" s="2">
+      <c r="G450" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H450" t="s" s="2">
+      <c r="H450" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -13145,28 +13157,28 @@
       </c>
     </row>
     <row r="452">
-      <c r="B452" t="s" s="2">
+      <c r="B452" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C452" t="s" s="2">
+      <c r="C452" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D452" t="s" s="2">
+      <c r="D452" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E452" t="s" s="2">
+      <c r="E452" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F452" t="s" s="2">
+      <c r="F452" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G452" t="s" s="2">
+      <c r="G452" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H452" t="s" s="2">
+      <c r="H452" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I452" t="s" s="2">
+      <c r="I452" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -13225,10 +13237,10 @@
       <c r="I454">
         <f>((C454-C453)^2+(D454- D453)^2)^.5</f>
       </c>
-      <c r="J454" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K454" s="2" t="s">
+      <c r="J454" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K454" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L454" t="n">
@@ -13272,28 +13284,28 @@
       </c>
     </row>
     <row r="456">
-      <c r="A456" t="s" s="2">
+      <c r="A456" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B456" t="s" s="2">
+      <c r="B456" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C456" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D456" t="s" s="2">
+      <c r="C456" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D456" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E456" t="s" s="2">
+      <c r="E456" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F456" t="s" s="2">
+      <c r="F456" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G456" t="s" s="2">
+      <c r="G456" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H456" t="s" s="2">
+      <c r="H456" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -13318,28 +13330,28 @@
       </c>
     </row>
     <row r="458">
-      <c r="B458" t="s" s="2">
+      <c r="B458" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C458" t="s" s="2">
+      <c r="C458" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D458" t="s" s="2">
+      <c r="D458" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E458" t="s" s="2">
+      <c r="E458" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F458" t="s" s="2">
+      <c r="F458" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G458" t="s" s="2">
+      <c r="G458" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H458" t="s" s="2">
+      <c r="H458" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I458" t="s" s="2">
+      <c r="I458" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -13398,10 +13410,10 @@
       <c r="I460">
         <f>((C460-C459)^2+(D460- D459)^2)^.5</f>
       </c>
-      <c r="J460" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K460" s="2" t="s">
+      <c r="J460" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K460" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L460" t="n">
@@ -13445,28 +13457,28 @@
       </c>
     </row>
     <row r="462">
-      <c r="A462" t="s" s="2">
+      <c r="A462" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B462" t="s" s="2">
+      <c r="B462" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C462" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D462" t="s" s="2">
+      <c r="C462" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D462" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E462" t="s" s="2">
+      <c r="E462" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F462" t="s" s="2">
+      <c r="F462" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G462" t="s" s="2">
+      <c r="G462" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H462" t="s" s="2">
+      <c r="H462" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -13491,28 +13503,28 @@
       </c>
     </row>
     <row r="464">
-      <c r="B464" t="s" s="2">
+      <c r="B464" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C464" t="s" s="2">
+      <c r="C464" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D464" t="s" s="2">
+      <c r="D464" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E464" t="s" s="2">
+      <c r="E464" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F464" t="s" s="2">
+      <c r="F464" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G464" t="s" s="2">
+      <c r="G464" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H464" t="s" s="2">
+      <c r="H464" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I464" t="s" s="2">
+      <c r="I464" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -13571,10 +13583,10 @@
       <c r="I466">
         <f>((C466-C465)^2+(D466- D465)^2)^.5</f>
       </c>
-      <c r="J466" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K466" s="2" t="s">
+      <c r="J466" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K466" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L466" t="n">
